--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -33,6 +33,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AQ$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -124,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="213">
   <si>
     <t>Retrieving data. Wait a few seconds and try to cut or copy again.</t>
   </si>
@@ -247,6 +251,9 @@
   </si>
   <si>
     <t>To include in first calculation?</t>
+  </si>
+  <si>
+    <t>Target Execution 2018</t>
   </si>
   <si>
     <t>RD38010008</t>
@@ -281,7 +288,7 @@
 7</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.25L Glass</t>
+    <t>Coca-Cola - 0.33L Glass</t>
   </si>
   <si>
     <t>Кока-Кола - 0.25л стекло</t>
@@ -305,7 +312,7 @@
     <t>BINARY</t>
   </si>
   <si>
-    <t>Coca-Cola Zero - 0.25L Glass</t>
+    <t>Coca-Cola Zero - 0.33L Glass</t>
   </si>
   <si>
     <t>Кока-Кола Зеро - 0.25л стекло</t>
@@ -744,7 +751,7 @@
     <t>ХО Заполнен</t>
   </si>
   <si>
-    <t>number of doors of filled Coolers</t>
+    <t>number of filled Coolers (scenes)</t>
   </si>
   <si>
     <t>SOS with empty more than 80%</t>
@@ -793,7 +800,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -858,6 +865,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -907,14 +921,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0066"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0066"/>
       </patternFill>
     </fill>
     <fill>
@@ -930,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -953,6 +967,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -986,11 +1007,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,7 +1028,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1108,6 +1129,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,7 +1144,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1141,16 +1170,24 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1171,7 +1208,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1223,7 +1260,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1247,18 +1284,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1295,15 +1332,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,15 +1422,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1708560</xdr:colOff>
+      <xdr:colOff>1788120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>317520</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1402,8 +1439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13093920" cy="10164240"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14501880" cy="10162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1430,15 +1467,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1708560</xdr:colOff>
+      <xdr:colOff>1788120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>317520</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1447,8 +1484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13093920" cy="10164240"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14501880" cy="10162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,15 +1512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1708560</xdr:colOff>
+      <xdr:colOff>1788120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>317520</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1492,8 +1529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13093920" cy="10164240"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14501880" cy="10162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,15 +1557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1708560</xdr:colOff>
+      <xdr:colOff>1788120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>317520</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1537,8 +1574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13093920" cy="10164240"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14501880" cy="10162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,15 +1602,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1708560</xdr:colOff>
+      <xdr:colOff>1788120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>317520</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1582,8 +1619,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="378000" y="0"/>
-          <a:ext cx="13093920" cy="10164240"/>
+          <a:off x="459000" y="0"/>
+          <a:ext cx="14501880" cy="10162800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,52 +1653,52 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.2697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="56.2372093023256"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="51.4418604651163"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="57.8372093023256"/>
-    <col collapsed="false" hidden="false" max="20" min="17" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="4" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="5" width="51.0697674418605"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="5" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="5" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="51.9302325581395"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="65.4697674418605"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.2558139534884"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="63.3767441860465"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="57.9627906976744"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="1" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="1" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="28" min="26" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="4" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="3" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="5" width="57.5953488372093"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="5" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="5" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1785,6 +1822,9 @@
       </c>
       <c r="AP1" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1792,25 +1832,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -1834,10 +1874,10 @@
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
       <c r="AD2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="AE2" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="AF2" s="24"/>
       <c r="AG2" s="16"/>
@@ -1852,568 +1892,575 @@
         <v>2</v>
       </c>
       <c r="AN2" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO2" s="29"/>
       <c r="AP2" s="11"/>
+      <c r="AQ2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>51</v>
       </c>
+      <c r="G3" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="H3" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="31" t="n">
-        <v>54490086</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="L3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="33" t="n">
+        <v>50112128</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
       <c r="W3" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
       <c r="AD3" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF3" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="35" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
       <c r="AL3" s="26" t="n">
         <v>2</v>
       </c>
       <c r="AM3" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP3" s="36"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>59</v>
       </c>
+      <c r="G4" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="38" t="n">
-        <v>90338120</v>
-      </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="L4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="33" t="n">
+        <v>90375408</v>
+      </c>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
       <c r="R4" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
       <c r="W4" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
       <c r="AD4" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF4" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="35" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="26" t="n">
         <v>3</v>
       </c>
       <c r="AM4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP4" s="36"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>61</v>
       </c>
+      <c r="G5" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="31" t="n">
+      <c r="L5" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="41" t="n">
         <v>40822341</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
       <c r="R5" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="23"/>
       <c r="W5" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="23"/>
       <c r="AB5" s="23"/>
       <c r="AC5" s="23"/>
       <c r="AD5" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="35" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="26" t="n">
         <v>4</v>
       </c>
       <c r="AM5" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP5" s="36"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>63</v>
       </c>
+      <c r="G6" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="31" t="n">
+      <c r="L6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="41" t="n">
         <v>40822549</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
       <c r="R6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
       <c r="W6" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE6" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF6" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF6" s="35" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
       <c r="AL6" s="26" t="n">
         <v>5</v>
       </c>
       <c r="AM6" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP6" s="36"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>65</v>
       </c>
+      <c r="G7" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="31" t="n">
+      <c r="L7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="43" t="n">
         <v>54490970</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="23"/>
       <c r="AB7" s="23"/>
       <c r="AC7" s="23"/>
       <c r="AD7" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF7" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="35" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
       <c r="AL7" s="26" t="n">
         <v>6</v>
       </c>
       <c r="AM7" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP7" s="36"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>67</v>
       </c>
+      <c r="G8" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="31" t="n">
+      <c r="L8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="43" t="n">
         <v>40822419</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA8" s="23"/>
       <c r="AB8" s="23"/>
       <c r="AC8" s="23"/>
       <c r="AD8" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE8" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF8" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF8" s="35" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
       <c r="AL8" s="26" t="n">
         <v>7</v>
       </c>
       <c r="AM8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP8" s="36"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="40" t="s">
         <v>42</v>
       </c>
+      <c r="C9" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>47</v>
+      <c r="G9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="41" t="s">
-        <v>55</v>
+      <c r="W9" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="X9" s="28"/>
       <c r="Y9" s="28"/>
@@ -2421,18 +2468,18 @@
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
-      <c r="AD9" s="41" t="s">
+      <c r="AD9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="41" t="s">
-        <v>47</v>
-      </c>
       <c r="AF9" s="28"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
       <c r="AL9" s="26" t="n">
         <v>8</v>
       </c>
@@ -2440,310 +2487,314 @@
         <v>2</v>
       </c>
       <c r="AN9" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AO9" s="29"/>
       <c r="AP9" s="11"/>
+      <c r="AQ9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>73</v>
       </c>
+      <c r="G10" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="31" t="n">
+      <c r="L10" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="41" t="n">
         <v>90418822</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="23"/>
       <c r="AB10" s="23"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF10" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="35" t="n">
         <v>0.03501</v>
       </c>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="26" t="n">
         <v>9</v>
       </c>
       <c r="AM10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP10" s="36"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>75</v>
       </c>
+      <c r="G11" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="31" t="n">
+      <c r="L11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="41" t="n">
         <v>90382741</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
       <c r="R11" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S11" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA11" s="23"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
       <c r="AD11" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF11" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="35" t="n">
         <v>0.03501</v>
       </c>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="AM11" s="46" t="n">
+      <c r="AM11" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP11" s="36"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="31" t="n">
+      <c r="L12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="41" t="n">
         <v>5449000196972</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
       <c r="R12" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
       <c r="AD12" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF12" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF12" s="35" t="n">
         <v>0.021996</v>
       </c>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
       <c r="AL12" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="AM12" s="46" t="n">
+      <c r="AM12" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP12" s="36"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="40" t="s">
         <v>42</v>
       </c>
+      <c r="C13" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>47</v>
+      <c r="G13" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
       <c r="V13" s="28"/>
-      <c r="W13" s="41" t="s">
-        <v>55</v>
+      <c r="W13" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="X13" s="28"/>
       <c r="Y13" s="28"/>
@@ -2751,18 +2802,18 @@
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AD13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AE13" s="41" t="s">
-        <v>47</v>
-      </c>
       <c r="AF13" s="28"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
       <c r="AL13" s="26" t="n">
         <v>12</v>
       </c>
@@ -2770,35 +2821,36 @@
         <v>2</v>
       </c>
       <c r="AN13" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO13" s="29"/>
-      <c r="AP13" s="36"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="30" t="s">
         <v>82</v>
       </c>
+      <c r="G14" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="21" t="n">
         <v>1</v>
@@ -2806,102 +2858,103 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="31" t="n">
+        <v>82</v>
+      </c>
+      <c r="M14" s="41" t="n">
         <v>5449000148056</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA14" s="23"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF14" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF14" s="35" t="n">
         <v>0.021996</v>
       </c>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
       <c r="AL14" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="AM14" s="46" t="n">
+      <c r="AM14" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP14" s="36"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="40" t="s">
         <v>42</v>
       </c>
+      <c r="C15" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>47</v>
+      <c r="G15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
       <c r="U15" s="28"/>
       <c r="V15" s="28"/>
-      <c r="W15" s="41" t="s">
-        <v>55</v>
+      <c r="W15" s="45" t="s">
+        <v>56</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -2909,18 +2962,18 @@
       <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
-      <c r="AD15" s="41" t="s">
+      <c r="AD15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AE15" s="41" t="s">
-        <v>47</v>
-      </c>
       <c r="AF15" s="28"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
       <c r="AL15" s="26" t="n">
         <v>14</v>
       </c>
@@ -2928,310 +2981,314 @@
         <v>2</v>
       </c>
       <c r="AN15" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO15" s="29"/>
-      <c r="AP15" s="36"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>87</v>
       </c>
+      <c r="G16" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="H16" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="31" t="n">
+      <c r="L16" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="41" t="n">
         <v>4650075420362</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA16" s="23"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
       <c r="AD16" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF16" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF16" s="35" t="n">
         <v>0.021996</v>
       </c>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
       <c r="AL16" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="AM16" s="46" t="n">
+      <c r="AM16" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP16" s="36"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>89</v>
       </c>
+      <c r="G17" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="31" t="n">
+      <c r="L17" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="41" t="n">
         <v>4650075420386</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X17" s="23"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA17" s="23"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
       <c r="AD17" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF17" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="35" t="n">
         <v>0.021996</v>
       </c>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
       <c r="AL17" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="AM17" s="46" t="n">
+      <c r="AM17" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP17" s="36"/>
+      <c r="AN17" s="38"/>
+      <c r="AO17" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" s="38"/>
+      <c r="AQ17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="53" t="s">
         <v>91</v>
       </c>
+      <c r="G18" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="H18" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="21" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="31" t="n">
+      <c r="L18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="41" t="n">
         <v>4650075420409</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA18" s="23"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
       <c r="AD18" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF18" s="33" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="35" t="n">
         <v>0.021996</v>
       </c>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
       <c r="AL18" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="AM18" s="46" t="n">
+      <c r="AM18" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP18" s="36"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="56" t="s">
         <v>95</v>
       </c>
+      <c r="G19" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="H19" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
-      <c r="W19" s="34" t="s">
-        <v>55</v>
+      <c r="W19" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -3239,11 +3296,11 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="16"/>
-      <c r="AD19" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE19" s="34" t="s">
-        <v>96</v>
+      <c r="AD19" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE19" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="AF19" s="16"/>
       <c r="AG19" s="16"/>
@@ -3254,2320 +3311,2364 @@
       <c r="AL19" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="AM19" s="36" t="n">
+      <c r="AM19" s="38" t="n">
         <v>2</v>
       </c>
       <c r="AN19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AO19" s="18"/>
       <c r="AP19" s="11"/>
+      <c r="AQ19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="54" t="s">
+      <c r="C20" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="35" t="n">
+      <c r="G20" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="56" t="n">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="60" t="n">
         <v>509987300136059</v>
       </c>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="34" t="s">
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34" t="s">
+      <c r="S20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34" t="s">
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE20" s="34" t="s">
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="59" t="n">
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" s="63" t="n">
         <v>0.02</v>
       </c>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="35"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
       <c r="AL20" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="AM20" s="60" t="n">
+      <c r="AM20" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP20" s="36"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="C21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="35" t="n">
+      <c r="G21" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="56" t="n">
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="60" t="n">
         <v>4607174573314</v>
       </c>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S21" s="34" t="s">
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34" t="s">
+      <c r="S21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34" t="s">
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE21" s="34" t="s">
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="59" t="n">
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" s="63" t="n">
         <v>0.01</v>
       </c>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
       <c r="AL21" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="AM21" s="60" t="n">
+      <c r="AM21" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP21" s="36"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="61" t="s">
+      <c r="C22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="35" t="n">
+      <c r="G22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="56" t="n">
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="60" t="n">
         <v>4607174573338</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="34" t="s">
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34" t="s">
+      <c r="S22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34" t="s">
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE22" s="34" t="s">
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AF22" s="59" t="n">
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="63" t="n">
         <v>0.01</v>
       </c>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
       <c r="AL22" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="AM22" s="60" t="n">
+      <c r="AM22" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP22" s="36"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>105</v>
+      <c r="D23" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>106</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="35" t="n">
+      <c r="G23" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="34" t="s">
-        <v>108</v>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y23" s="34" t="s">
+      <c r="S23" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23" s="59" t="n">
+      <c r="Y23" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE23" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF23" s="63" t="n">
         <v>0.15</v>
       </c>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
       <c r="AL23" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="AM23" s="60" t="n">
+      <c r="AM23" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="36"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="50" t="s">
-        <v>112</v>
+      <c r="D24" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="G24" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="34" t="n">
+      <c r="H24" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF24" s="59" t="n">
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF24" s="63" t="n">
         <v>0.05</v>
       </c>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
       <c r="AL24" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="AM24" s="60" t="n">
+      <c r="AM24" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN24" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
+      <c r="AN24" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="50" t="s">
-        <v>112</v>
+      <c r="D25" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="35" t="n">
+      <c r="G25" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="34" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="M25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34" t="s">
-        <v>53</v>
+      <c r="N25" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T25" s="34"/>
-      <c r="U25" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y25" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="59" t="n">
+      <c r="T25" s="36"/>
+      <c r="U25" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF25" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="65"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="69"/>
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="AM25" s="60" t="n">
+      <c r="AM25" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP25" s="36"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>112</v>
+      <c r="D26" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="35" t="n">
+      <c r="G26" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S26" s="34" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="T26" s="34"/>
-      <c r="U26" s="64" t="s">
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y26" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="59" t="n">
+      <c r="T26" s="36"/>
+      <c r="U26" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE26" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF26" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="65"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="69"/>
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="AM26" s="60" t="n">
+      <c r="AM26" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP26" s="36"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="50" t="s">
-        <v>112</v>
+      <c r="D27" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="62" t="s">
         <v>131</v>
       </c>
+      <c r="G27" s="66" t="s">
+        <v>132</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="66" t="n">
+        <v>133</v>
+      </c>
+      <c r="I27" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" s="34" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="N27" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="34" t="s">
+      <c r="M27" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34" t="s">
-        <v>53</v>
+      <c r="N27" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y27" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF27" s="59" t="n">
+        <v>137</v>
+      </c>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE27" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF27" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="65"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="69"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="AM27" s="60" t="n">
+      <c r="AM27" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP27" s="36"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="50" t="s">
-        <v>112</v>
+      <c r="D28" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="35" t="n">
+      <c r="G28" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y28" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE28" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF28" s="59" t="n">
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y28" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF28" s="63" t="n">
         <v>0.05</v>
       </c>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
-      <c r="AK28" s="35"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
       <c r="AL28" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="AM28" s="60" t="n">
+      <c r="AM28" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN28" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
+      <c r="AN28" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>112</v>
+      <c r="D29" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="35" t="n">
+      <c r="G29" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y29" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF29" s="59" t="n">
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y29" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF29" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
       <c r="AL29" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="AM29" s="60" t="n">
+      <c r="AM29" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP29" s="36"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="35" t="s">
+      <c r="B30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>112</v>
+      <c r="D30" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="35" t="n">
+        <v>146</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S30" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="T30" s="34"/>
-      <c r="U30" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="V30" s="34"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y30" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE30" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF30" s="59" t="n">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y30" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF30" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
       <c r="AL30" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="AM30" s="60" t="n">
+      <c r="AM30" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP30" s="36"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>147</v>
+      <c r="D31" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="35" t="n">
+      <c r="G31" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y31" s="34" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE31" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF31" s="59" t="n">
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y31" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE31" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF31" s="63" t="n">
         <v>0.03</v>
       </c>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
       <c r="AL31" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="AM31" s="60" t="n">
+      <c r="AM31" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN31" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
+      <c r="AN31" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="C32" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>147</v>
+      <c r="D32" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="35" t="n">
+      <c r="G32" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q32" s="34" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="R32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y32" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE32" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF32" s="59" t="n">
+      <c r="N32" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y32" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE32" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF32" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
       <c r="AL32" s="26" t="n">
         <v>31</v>
       </c>
-      <c r="AM32" s="60" t="n">
+      <c r="AM32" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP32" s="36"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP32" s="38"/>
+      <c r="AQ32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="C33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>147</v>
+      <c r="D33" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="35" t="n">
+      <c r="G33" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S33" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="T33" s="34"/>
-      <c r="U33" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="V33" s="34"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y33" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE33" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF33" s="59" t="n">
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T33" s="36"/>
+      <c r="U33" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="V33" s="36"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE33" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF33" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
       <c r="AL33" s="26" t="n">
         <v>32</v>
       </c>
-      <c r="AM33" s="60" t="n">
+      <c r="AM33" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP33" s="36"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>147</v>
+      <c r="D34" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="35" t="n">
+      <c r="G34" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34" s="34" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y34" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE34" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF34" s="59" t="n">
+      <c r="S34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE34" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" s="63" t="n">
         <v>0.03</v>
       </c>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="35"/>
-      <c r="AJ34" s="35"/>
-      <c r="AK34" s="35"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
       <c r="AL34" s="26" t="n">
         <v>33</v>
       </c>
-      <c r="AM34" s="60" t="n">
+      <c r="AM34" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN34" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
+      <c r="AN34" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="35" t="s">
+      <c r="B35" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="C35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>147</v>
+      <c r="D35" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="35" t="n">
+      <c r="G35" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q35" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="R35" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S35" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y35" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE35" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF35" s="59" t="n">
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE35" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF35" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
       <c r="AL35" s="26" t="n">
         <v>34</v>
       </c>
-      <c r="AM35" s="60" t="n">
+      <c r="AM35" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP35" s="36"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="35" t="s">
+      <c r="B36" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="50" t="s">
-        <v>147</v>
+      <c r="D36" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="35" t="n">
+      <c r="G36" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="M36" s="35" t="n">
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" s="37" t="n">
         <v>5000034</v>
       </c>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="S36" s="35" t="s">
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y36" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE36" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF36" s="59" t="n">
+      <c r="S36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="62"/>
+      <c r="AC36" s="62"/>
+      <c r="AD36" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE36" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF36" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
       <c r="AL36" s="26" t="n">
         <v>35</v>
       </c>
-      <c r="AM36" s="60" t="n">
+      <c r="AM36" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP36" s="36"/>
+      <c r="AN36" s="38"/>
+      <c r="AO36" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP36" s="38"/>
+      <c r="AQ36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="35" t="s">
+      <c r="B37" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="C37" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="50" t="s">
-        <v>147</v>
+      <c r="D37" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="35" t="n">
+      <c r="G37" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y37" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE37" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF37" s="59" t="n">
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y37" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="62"/>
+      <c r="AC37" s="62"/>
+      <c r="AD37" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE37" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" s="63" t="n">
         <v>0.03</v>
       </c>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
       <c r="AL37" s="26" t="n">
         <v>36</v>
       </c>
-      <c r="AM37" s="60" t="n">
+      <c r="AM37" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN37" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
+      <c r="AN37" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="35" t="s">
+      <c r="B38" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="C38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="50" t="s">
-        <v>147</v>
+      <c r="D38" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="35" t="n">
+      <c r="G38" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="M38" s="70" t="s">
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S38" s="34" t="s">
+      <c r="M38" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y38" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE38" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF38" s="59" t="n">
+      <c r="S38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y38" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="62"/>
+      <c r="AC38" s="62"/>
+      <c r="AD38" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE38" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
       <c r="AL38" s="26" t="n">
         <v>37</v>
       </c>
-      <c r="AM38" s="60" t="n">
+      <c r="AM38" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP38" s="36"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="50" t="s">
-        <v>147</v>
+      <c r="D39" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="H39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="35" t="n">
+      <c r="G39" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="M39" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S39" s="34" t="s">
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="M39" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y39" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE39" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF39" s="59" t="n">
+      <c r="S39" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y39" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE39" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="35"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="35"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
       <c r="AL39" s="26" t="n">
         <v>38</v>
       </c>
-      <c r="AM39" s="60" t="n">
+      <c r="AM39" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP39" s="36"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="35" t="s">
+      <c r="B40" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="C40" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>147</v>
+      <c r="D40" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="35" t="n">
+      <c r="G40" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="M40" s="34" t="s">
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S40" s="34" t="s">
+      <c r="M40" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y40" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE40" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF40" s="59" t="n">
+      <c r="S40" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y40" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="62"/>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE40" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" s="63" t="n">
         <v>0.03</v>
       </c>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="35"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="35"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
       <c r="AL40" s="26" t="n">
         <v>39</v>
       </c>
-      <c r="AM40" s="60" t="n">
+      <c r="AM40" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>147</v>
+      <c r="D41" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="35" t="n">
+      <c r="G41" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N41" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q41" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="R41" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S41" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y41" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE41" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF41" s="59" t="n">
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y41" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE41" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="63" t="n">
         <v>0.03</v>
       </c>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
       <c r="AL41" s="26" t="n">
         <v>40</v>
       </c>
-      <c r="AM41" s="60" t="n">
+      <c r="AM41" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>187</v>
+      <c r="C42" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="H42" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="66" t="n">
+      <c r="G42" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE42" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF42" s="59" t="n">
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE42" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF42" s="63" t="n">
         <v>0.2</v>
       </c>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="35"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
       <c r="AL42" s="26" t="n">
         <v>41</v>
       </c>
-      <c r="AM42" s="60" t="n">
+      <c r="AM42" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AN42" s="41" t="s">
-        <v>191</v>
+      <c r="AN42" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="AO42" s="0"/>
-      <c r="AP42" s="36"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="19" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>187</v>
+      <c r="C43" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="62" t="s">
         <v>193</v>
       </c>
+      <c r="G43" s="66" t="s">
+        <v>194</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="71" t="n">
+        <v>195</v>
+      </c>
+      <c r="I43" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S43" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y43" s="72" t="s">
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE43" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF43" s="59" t="n">
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y43" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE43" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF43" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="35"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
+      <c r="AK43" s="37"/>
       <c r="AL43" s="26" t="n">
         <v>42</v>
       </c>
-      <c r="AM43" s="60" t="n">
+      <c r="AM43" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP43" s="36"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>187</v>
+      <c r="C44" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" s="62" t="s">
         <v>198</v>
       </c>
+      <c r="G44" s="66" t="s">
+        <v>199</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M44" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34" t="s">
-        <v>53</v>
+      <c r="M44" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE44" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF44" s="59" t="n">
+        <v>124</v>
+      </c>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF44" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ44" s="35"/>
-      <c r="AK44" s="35"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
       <c r="AL44" s="26" t="n">
         <v>43</v>
       </c>
-      <c r="AM44" s="60" t="n">
+      <c r="AM44" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP44" s="36"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="30"/>
     </row>
     <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>187</v>
+      <c r="C45" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="G45" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="I45" s="35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M45" s="34" t="s">
+      <c r="H45" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34" t="s">
-        <v>53</v>
+      <c r="M45" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE45" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF45" s="59" t="n">
+        <v>124</v>
+      </c>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE45" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF45" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ45" s="35"/>
-      <c r="AK45" s="35"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
       <c r="AL45" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="AM45" s="60" t="n">
+      <c r="AM45" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP45" s="36"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="30"/>
     </row>
     <row r="46" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="37" t="s">
+      <c r="C46" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="G46" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71" t="n">
+      <c r="H46" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="K46" s="75" t="n">
+      <c r="K46" s="79" t="n">
         <v>14</v>
       </c>
-      <c r="L46" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M46" s="34" t="s">
+      <c r="L46" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S46" s="35" t="s">
+      <c r="M46" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
+      <c r="S46" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
       <c r="AA46" s="23"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE46" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF46" s="59" t="n">
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE46" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF46" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="34"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
       <c r="AL46" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="AM46" s="60" t="n">
+      <c r="AM46" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP46" s="36"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AQ46"/>
@@ -5596,53 +5697,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="77" t="s">
+      <c r="G1" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="H1" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="81" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="78" t="s">
-        <v>211</v>
+      <c r="B4" s="82" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -146,7 +147,7 @@
     <t xml:space="preserve">SAP KPI</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI CCH ID</t>
+    <t xml:space="preserve">CCH KPI ID</t>
   </si>
   <si>
     <t xml:space="preserve">KPI name Eng</t>
@@ -1588,9 +1589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787760</xdr:colOff>
+      <xdr:colOff>1787400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1600,7 +1601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18997560" cy="10164960"/>
+          <a:ext cx="19501920" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,9 +1634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787760</xdr:colOff>
+      <xdr:colOff>1787400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1645,7 +1646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18997560" cy="10164960"/>
+          <a:ext cx="19501920" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787760</xdr:colOff>
+      <xdr:colOff>1787400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1690,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18997560" cy="10164960"/>
+          <a:ext cx="19501920" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,9 +1724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787760</xdr:colOff>
+      <xdr:colOff>1787400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,7 +1736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18997560" cy="10164960"/>
+          <a:ext cx="19501920" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,9 +1769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787760</xdr:colOff>
+      <xdr:colOff>1787400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1780,7 +1781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="18997560" cy="10164960"/>
+          <a:ext cx="19501920" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,48 +1816,48 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R48" activeCellId="0" sqref="R48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="53.4093023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="67.4372093023256"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="65.2232558139535"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="59.6837209302326"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="67.0697674418605"/>
-    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="37.4093023255814"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="59.3162790697674"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="69.4093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="49.9627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.4093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="69.1627906976744"/>
+    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,6 +4176,7 @@
       <c r="I27" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="J27" s="0"/>
       <c r="K27" s="72" t="n">
         <v>2</v>
       </c>
@@ -5602,6 +5604,7 @@
       <c r="I43" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="J43" s="0"/>
       <c r="K43" s="77" t="n">
         <v>1</v>
       </c>
@@ -5686,6 +5689,7 @@
       <c r="I44" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="J44" s="0"/>
       <c r="K44" s="39" t="n">
         <v>1</v>
       </c>
@@ -6640,7 +6644,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -822,7 +823,8 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">MenuC1</t>
+    <t xml:space="preserve">MenuC1
+No_MenuC1</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVATION_SSD</t>
@@ -831,10 +833,12 @@
     <t xml:space="preserve">Number of CCH activation points in SSD</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEST</t>
+    <t xml:space="preserve">IMPU
+No_IMPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEST
+No_DEST</t>
   </si>
   <si>
     <t xml:space="preserve">PRIORITY_OCC</t>
@@ -843,19 +847,24 @@
     <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
   </si>
   <si>
-    <t xml:space="preserve">DO_MornC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_FormL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO_MidSoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO_EveO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EO_InforLu</t>
+    <t xml:space="preserve">DO_MornC
+No_DO_MornC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO_FormL
+No_EO_FormL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO_MidSoc
+No_DO_MidSoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO_EveO
+No_DO_EveO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EO_InforLu
+No_EO_InforLu</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -1589,9 +1598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787400</xdr:colOff>
+      <xdr:colOff>1787040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1601,7 +1610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="19501920" cy="10164600"/>
+          <a:ext cx="20016000" cy="10164240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,9 +1643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787400</xdr:colOff>
+      <xdr:colOff>1787040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1646,7 +1655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="19501920" cy="10164600"/>
+          <a:ext cx="20016000" cy="10164240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,9 +1688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787400</xdr:colOff>
+      <xdr:colOff>1787040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="19501920" cy="10164600"/>
+          <a:ext cx="20016000" cy="10164240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,9 +1733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787400</xdr:colOff>
+      <xdr:colOff>1787040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1736,7 +1745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="19501920" cy="10164600"/>
+          <a:ext cx="20016000" cy="10164240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,9 +1778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787400</xdr:colOff>
+      <xdr:colOff>1787040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1781,7 +1790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="19501920" cy="10164600"/>
+          <a:ext cx="20016000" cy="10164240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1816,48 +1825,48 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="69.4093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="49.9627906976744"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="41.4697674418605"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.1906976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.4093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="69.1627906976744"/>
-    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="61.1627906976744"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.6093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="56.6093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="71.4976744186046"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="51.4418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="42.7023255813953"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="69.2837209302326"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="71.1302325581395"/>
+    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.5813953488372"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="62.8837209302326"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="12.1813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6047,7 @@
       <c r="L48" s="87"/>
       <c r="M48" s="88"/>
       <c r="N48" s="88"/>
-      <c r="O48" s="87" t="s">
+      <c r="O48" s="88" t="s">
         <v>223</v>
       </c>
       <c r="P48" s="87"/>
@@ -6113,7 +6122,7 @@
       <c r="L49" s="87"/>
       <c r="M49" s="88"/>
       <c r="N49" s="88"/>
-      <c r="O49" s="87" t="s">
+      <c r="O49" s="88" t="s">
         <v>226</v>
       </c>
       <c r="P49" s="87"/>
@@ -6190,7 +6199,7 @@
       <c r="L50" s="87"/>
       <c r="M50" s="88"/>
       <c r="N50" s="88"/>
-      <c r="O50" s="87" t="s">
+      <c r="O50" s="88" t="s">
         <v>227</v>
       </c>
       <c r="P50" s="87"/>
@@ -6267,7 +6276,7 @@
       <c r="L51" s="87"/>
       <c r="M51" s="88"/>
       <c r="N51" s="88"/>
-      <c r="O51" s="87" t="s">
+      <c r="O51" s="88" t="s">
         <v>230</v>
       </c>
       <c r="P51" s="87"/>
@@ -6344,7 +6353,7 @@
       <c r="L52" s="87"/>
       <c r="M52" s="88"/>
       <c r="N52" s="88"/>
-      <c r="O52" s="87" t="s">
+      <c r="O52" s="88" t="s">
         <v>231</v>
       </c>
       <c r="P52" s="87"/>
@@ -6421,7 +6430,7 @@
       <c r="L53" s="87"/>
       <c r="M53" s="88"/>
       <c r="N53" s="88"/>
-      <c r="O53" s="87" t="s">
+      <c r="O53" s="88" t="s">
         <v>232</v>
       </c>
       <c r="P53" s="87"/>
@@ -6498,7 +6507,7 @@
       <c r="L54" s="87"/>
       <c r="M54" s="88"/>
       <c r="N54" s="88"/>
-      <c r="O54" s="87" t="s">
+      <c r="O54" s="88" t="s">
         <v>233</v>
       </c>
       <c r="P54" s="87"/>
@@ -6575,7 +6584,7 @@
       <c r="L55" s="87"/>
       <c r="M55" s="88"/>
       <c r="N55" s="88"/>
-      <c r="O55" s="87" t="s">
+      <c r="O55" s="88" t="s">
         <v>234</v>
       </c>
       <c r="P55" s="87"/>
@@ -6644,7 +6653,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Restaurant_Cafe" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="238">
   <si>
     <t xml:space="preserve">Retrieving data. Wait a few seconds and try to cut or copy again.</t>
   </si>
@@ -605,9 +604,6 @@
   </si>
   <si>
     <t xml:space="preserve">Повод: Завтрак/утренний кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
   </si>
   <si>
     <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
@@ -1598,9 +1594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787040</xdr:colOff>
+      <xdr:colOff>1787760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1610,7 +1606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="20016000" cy="10164240"/>
+          <a:ext cx="19502280" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,9 +1639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787040</xdr:colOff>
+      <xdr:colOff>1787760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1655,7 +1651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="20016000" cy="10164240"/>
+          <a:ext cx="19502280" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1688,9 +1684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787040</xdr:colOff>
+      <xdr:colOff>1787760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1700,7 +1696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="20016000" cy="10164240"/>
+          <a:ext cx="19502280" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1733,9 +1729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787040</xdr:colOff>
+      <xdr:colOff>1787760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1745,7 +1741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="20016000" cy="10164240"/>
+          <a:ext cx="19502280" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1778,9 +1774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1787040</xdr:colOff>
+      <xdr:colOff>1787760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1790,7 +1786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="20016000" cy="10164240"/>
+          <a:ext cx="19502280" cy="10164600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,48 +1821,50 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="47:55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.0093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="71.4976744186046"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="51.4418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.4744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.0883720930233"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="69.2837209302326"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="71.1302325581395"/>
-    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.5813953488372"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="39.6279069767442"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="62.8837209302326"/>
-    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="55.0093023255814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="69.4093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="49.9627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.7348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.4093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="1" width="69.1627906976744"/>
+    <col collapsed="false" hidden="false" max="22" min="19" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="4" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="3" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="5" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="39" min="38" style="5" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="5" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="32.6093023255814"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4183,6 @@
       <c r="I27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="0"/>
       <c r="K27" s="72" t="n">
         <v>2</v>
       </c>
@@ -4556,7 +4553,7 @@
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="U31" s="38"/>
       <c r="V31" s="38"/>
@@ -4567,7 +4564,7 @@
         <v>113</v>
       </c>
       <c r="AA31" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB31" s="38"/>
       <c r="AC31" s="38"/>
@@ -4594,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="AP31" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AQ31" s="40"/>
       <c r="AR31" s="40"/>
@@ -4620,10 +4617,10 @@
       </c>
       <c r="F32" s="56"/>
       <c r="G32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="74" t="s">
         <v>156</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>157</v>
       </c>
       <c r="I32" s="38" t="s">
         <v>55</v>
@@ -4636,17 +4633,17 @@
       <c r="M32" s="39"/>
       <c r="N32" s="38"/>
       <c r="O32" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P32" s="38" t="s">
         <v>146</v>
       </c>
       <c r="Q32" s="38"/>
       <c r="R32" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="S32" s="38" t="s">
         <v>158</v>
-      </c>
-      <c r="S32" s="38" t="s">
-        <v>159</v>
       </c>
       <c r="T32" s="38" t="s">
         <v>56</v>
@@ -4662,7 +4659,7 @@
         <v>113</v>
       </c>
       <c r="AA32" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB32" s="38"/>
       <c r="AC32" s="38"/>
@@ -4713,10 +4710,10 @@
       </c>
       <c r="F33" s="56"/>
       <c r="G33" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="74" t="s">
         <v>160</v>
-      </c>
-      <c r="H33" s="74" t="s">
-        <v>161</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>55</v>
@@ -4729,14 +4726,14 @@
       <c r="M33" s="39"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P33" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="38"/>
       <c r="R33" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S33" s="38"/>
       <c r="T33" s="38" t="s">
@@ -4806,10 +4803,10 @@
       </c>
       <c r="F34" s="56"/>
       <c r="G34" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="74" t="s">
         <v>163</v>
-      </c>
-      <c r="H34" s="74" t="s">
-        <v>164</v>
       </c>
       <c r="I34" s="38" t="s">
         <v>118</v>
@@ -4840,7 +4837,7 @@
         <v>113</v>
       </c>
       <c r="AA34" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB34" s="38"/>
       <c r="AC34" s="38"/>
@@ -4867,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="AP34" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ34" s="40"/>
       <c r="AR34" s="40"/>
@@ -4893,10 +4890,10 @@
       </c>
       <c r="F35" s="56"/>
       <c r="G35" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="74" t="s">
         <v>166</v>
-      </c>
-      <c r="H35" s="74" t="s">
-        <v>167</v>
       </c>
       <c r="I35" s="39" t="s">
         <v>55</v>
@@ -4916,10 +4913,10 @@
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S35" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T35" s="38" t="s">
         <v>56</v>
@@ -4935,7 +4932,7 @@
         <v>113</v>
       </c>
       <c r="AA35" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB35" s="38"/>
       <c r="AC35" s="38"/>
@@ -4963,7 +4960,7 @@
       </c>
       <c r="AP35" s="40"/>
       <c r="AQ35" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR35" s="40"/>
       <c r="AS35" s="32"/>
@@ -4986,10 +4983,10 @@
       </c>
       <c r="F36" s="56"/>
       <c r="G36" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="74" t="s">
         <v>169</v>
-      </c>
-      <c r="H36" s="74" t="s">
-        <v>170</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>55</v>
@@ -5001,7 +4998,7 @@
       <c r="L36" s="68"/>
       <c r="M36" s="68"/>
       <c r="N36" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O36" s="39" t="n">
         <v>5000034</v>
@@ -5024,7 +5021,7 @@
         <v>113</v>
       </c>
       <c r="AA36" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB36" s="38"/>
       <c r="AC36" s="38"/>
@@ -5042,7 +5039,7 @@
       <c r="AI36" s="38"/>
       <c r="AJ36" s="38"/>
       <c r="AK36" s="75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL36" s="39"/>
       <c r="AM36" s="39"/>
@@ -5054,7 +5051,7 @@
       </c>
       <c r="AP36" s="40"/>
       <c r="AQ36" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR36" s="40"/>
       <c r="AS36" s="32"/>
@@ -5077,10 +5074,10 @@
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="74" t="s">
         <v>173</v>
-      </c>
-      <c r="H37" s="74" t="s">
-        <v>174</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>118</v>
@@ -5109,7 +5106,7 @@
         <v>113</v>
       </c>
       <c r="AA37" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB37" s="38"/>
       <c r="AC37" s="38"/>
@@ -5136,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="AP37" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AQ37" s="40"/>
       <c r="AR37" s="40"/>
@@ -5162,10 +5159,10 @@
       </c>
       <c r="F38" s="56"/>
       <c r="G38" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="74" t="s">
         <v>176</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>177</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>55</v>
@@ -5177,10 +5174,10 @@
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
       <c r="N38" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="O38" s="76" t="s">
         <v>178</v>
-      </c>
-      <c r="O38" s="76" t="s">
-        <v>179</v>
       </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="38" t="s">
@@ -5202,7 +5199,7 @@
         <v>113</v>
       </c>
       <c r="AA38" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB38" s="38"/>
       <c r="AC38" s="38"/>
@@ -5230,7 +5227,7 @@
       </c>
       <c r="AP38" s="40"/>
       <c r="AQ38" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AR38" s="40"/>
       <c r="AS38" s="32"/>
@@ -5253,10 +5250,10 @@
       </c>
       <c r="F39" s="56"/>
       <c r="G39" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="74" t="s">
         <v>180</v>
-      </c>
-      <c r="H39" s="74" t="s">
-        <v>181</v>
       </c>
       <c r="I39" s="38" t="s">
         <v>55</v>
@@ -5268,10 +5265,10 @@
       <c r="L39" s="39"/>
       <c r="M39" s="39"/>
       <c r="N39" s="70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O39" s="70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
@@ -5291,7 +5288,7 @@
         <v>113</v>
       </c>
       <c r="AA39" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB39" s="38"/>
       <c r="AC39" s="38"/>
@@ -5319,7 +5316,7 @@
       </c>
       <c r="AP39" s="40"/>
       <c r="AQ39" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AR39" s="40"/>
       <c r="AS39" s="32"/>
@@ -5342,10 +5339,10 @@
       </c>
       <c r="F40" s="56"/>
       <c r="G40" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="74" t="s">
         <v>183</v>
-      </c>
-      <c r="H40" s="74" t="s">
-        <v>184</v>
       </c>
       <c r="I40" s="38" t="s">
         <v>55</v>
@@ -5357,10 +5354,10 @@
       <c r="L40" s="39"/>
       <c r="M40" s="39"/>
       <c r="N40" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="O40" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="O40" s="38" t="s">
-        <v>186</v>
       </c>
       <c r="P40" s="38"/>
       <c r="Q40" s="38" t="s">
@@ -5382,7 +5379,7 @@
         <v>113</v>
       </c>
       <c r="AA40" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB40" s="38"/>
       <c r="AC40" s="38"/>
@@ -5433,10 +5430,10 @@
       </c>
       <c r="F41" s="56"/>
       <c r="G41" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="74" t="s">
         <v>187</v>
-      </c>
-      <c r="H41" s="74" t="s">
-        <v>188</v>
       </c>
       <c r="I41" s="38" t="s">
         <v>55</v>
@@ -5456,10 +5453,10 @@
       </c>
       <c r="Q41" s="38"/>
       <c r="R41" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S41" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T41" s="38" t="s">
         <v>56</v>
@@ -5475,7 +5472,7 @@
         <v>113</v>
       </c>
       <c r="AA41" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB41" s="38"/>
       <c r="AC41" s="38"/>
@@ -5522,14 +5519,14 @@
         <v>95</v>
       </c>
       <c r="E42" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="68" t="s">
         <v>191</v>
-      </c>
-      <c r="H42" s="68" t="s">
-        <v>192</v>
       </c>
       <c r="I42" s="72" t="s">
         <v>118</v>
@@ -5553,7 +5550,7 @@
       <c r="X42" s="38"/>
       <c r="Y42" s="38"/>
       <c r="Z42" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA42" s="38"/>
       <c r="AB42" s="38"/>
@@ -5581,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="AP42" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ42" s="0"/>
       <c r="AR42" s="40"/>
@@ -5601,19 +5598,18 @@
         <v>95</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" s="57"/>
       <c r="G43" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="68" t="s">
+      <c r="I43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="0"/>
       <c r="K43" s="77" t="n">
         <v>1</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>56</v>
       </c>
       <c r="U43" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V43" s="38"/>
       <c r="W43" s="38"/>
@@ -5639,7 +5635,7 @@
         <v>58</v>
       </c>
       <c r="AA43" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AB43" s="38"/>
       <c r="AC43" s="38"/>
@@ -5667,7 +5663,7 @@
       </c>
       <c r="AP43" s="40"/>
       <c r="AQ43" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR43" s="40"/>
       <c r="AS43" s="32"/>
@@ -5686,19 +5682,18 @@
         <v>95</v>
       </c>
       <c r="E44" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="68" t="s">
+      <c r="I44" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J44" s="0"/>
       <c r="K44" s="39" t="n">
         <v>1</v>
       </c>
@@ -5725,7 +5720,7 @@
       <c r="X44" s="38"/>
       <c r="Y44" s="38"/>
       <c r="Z44" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA44" s="38"/>
       <c r="AB44" s="38"/>
@@ -5744,7 +5739,7 @@
       <c r="AI44" s="38"/>
       <c r="AJ44" s="38"/>
       <c r="AK44" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL44" s="39"/>
       <c r="AM44" s="39"/>
@@ -5756,7 +5751,7 @@
       </c>
       <c r="AP44" s="40"/>
       <c r="AQ44" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR44" s="40"/>
       <c r="AS44" s="32"/>
@@ -5775,17 +5770,17 @@
         <v>95</v>
       </c>
       <c r="E45" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F45" s="57"/>
       <c r="G45" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="68" t="s">
+      <c r="I45" s="38" t="s">
         <v>205</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>206</v>
       </c>
       <c r="J45" s="38"/>
       <c r="K45" s="39" t="n">
@@ -5814,7 +5809,7 @@
       <c r="X45" s="38"/>
       <c r="Y45" s="38"/>
       <c r="Z45" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA45" s="38"/>
       <c r="AB45" s="38"/>
@@ -5833,7 +5828,7 @@
       <c r="AI45" s="38"/>
       <c r="AJ45" s="38"/>
       <c r="AK45" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL45" s="39"/>
       <c r="AM45" s="39"/>
@@ -5845,7 +5840,7 @@
       </c>
       <c r="AP45" s="40"/>
       <c r="AQ45" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR45" s="40"/>
       <c r="AS45" s="32"/>
@@ -5866,13 +5861,13 @@
       <c r="E46" s="57"/>
       <c r="F46" s="57"/>
       <c r="G46" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="I46" s="80" t="s">
         <v>209</v>
-      </c>
-      <c r="I46" s="80" t="s">
-        <v>210</v>
       </c>
       <c r="J46" s="80"/>
       <c r="K46" s="77"/>
@@ -5903,7 +5898,7 @@
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
       <c r="Z46" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA46" s="39"/>
       <c r="AB46" s="39"/>
@@ -5932,7 +5927,7 @@
       </c>
       <c r="AP46" s="40"/>
       <c r="AQ46" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR46" s="40"/>
       <c r="AS46" s="32"/>
@@ -5948,25 +5943,25 @@
         <v>45</v>
       </c>
       <c r="D47" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="F47" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="G47" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="G47" s="84" t="s">
+      <c r="H47" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="85" t="s">
+      <c r="I47" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="I47" s="86" t="s">
+      <c r="J47" s="87" t="s">
         <v>216</v>
-      </c>
-      <c r="J47" s="87" t="s">
-        <v>217</v>
       </c>
       <c r="K47" s="87"/>
       <c r="L47" s="87"/>
@@ -5979,7 +5974,7 @@
       <c r="S47" s="87"/>
       <c r="T47" s="87"/>
       <c r="U47" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V47" s="87"/>
       <c r="W47" s="87"/>
@@ -6023,32 +6018,32 @@
         <v>45</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="83" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="84" t="s">
         <v>219</v>
-      </c>
-      <c r="G48" s="84" t="s">
-        <v>220</v>
       </c>
       <c r="H48" s="85" t="s">
         <v>109</v>
       </c>
       <c r="I48" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J48" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K48" s="87"/>
       <c r="L48" s="87"/>
       <c r="M48" s="88"/>
       <c r="N48" s="88"/>
       <c r="O48" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P48" s="87"/>
       <c r="Q48" s="87"/>
@@ -6056,7 +6051,7 @@
       <c r="S48" s="87"/>
       <c r="T48" s="87"/>
       <c r="U48" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V48" s="87"/>
       <c r="W48" s="87"/>
@@ -6098,32 +6093,32 @@
         <v>45</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="83" t="s">
         <v>115</v>
       </c>
       <c r="F49" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="84" t="s">
         <v>224</v>
-      </c>
-      <c r="G49" s="84" t="s">
-        <v>225</v>
       </c>
       <c r="H49" s="85" t="s">
         <v>116</v>
       </c>
       <c r="I49" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J49" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J49" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K49" s="87"/>
       <c r="L49" s="87"/>
       <c r="M49" s="88"/>
       <c r="N49" s="88"/>
       <c r="O49" s="88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P49" s="87"/>
       <c r="Q49" s="87"/>
@@ -6131,7 +6126,7 @@
       <c r="S49" s="87"/>
       <c r="T49" s="87"/>
       <c r="U49" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V49" s="87"/>
       <c r="W49" s="87"/>
@@ -6175,32 +6170,32 @@
         <v>45</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E50" s="83" t="s">
         <v>115</v>
       </c>
       <c r="F50" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="84" t="s">
         <v>224</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>225</v>
       </c>
       <c r="H50" s="85" t="s">
         <v>140</v>
       </c>
       <c r="I50" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J50" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J50" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K50" s="87"/>
       <c r="L50" s="87"/>
       <c r="M50" s="88"/>
       <c r="N50" s="88"/>
       <c r="O50" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P50" s="87"/>
       <c r="Q50" s="87"/>
@@ -6208,7 +6203,7 @@
       <c r="S50" s="87"/>
       <c r="T50" s="87"/>
       <c r="U50" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V50" s="87"/>
       <c r="W50" s="87"/>
@@ -6252,32 +6247,32 @@
         <v>45</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="83" t="s">
         <v>150</v>
       </c>
       <c r="F51" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="84" t="s">
         <v>228</v>
-      </c>
-      <c r="G51" s="84" t="s">
-        <v>229</v>
       </c>
       <c r="H51" s="85" t="s">
         <v>151</v>
       </c>
       <c r="I51" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J51" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J51" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K51" s="87"/>
       <c r="L51" s="87"/>
       <c r="M51" s="88"/>
       <c r="N51" s="88"/>
       <c r="O51" s="88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P51" s="87"/>
       <c r="Q51" s="87"/>
@@ -6285,7 +6280,7 @@
       <c r="S51" s="87"/>
       <c r="T51" s="87"/>
       <c r="U51" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V51" s="87"/>
       <c r="W51" s="87"/>
@@ -6329,32 +6324,32 @@
         <v>45</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="83" t="s">
         <v>150</v>
       </c>
       <c r="F52" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G52" s="84" t="s">
-        <v>229</v>
-      </c>
       <c r="H52" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I52" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J52" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K52" s="87"/>
       <c r="L52" s="87"/>
       <c r="M52" s="88"/>
       <c r="N52" s="88"/>
       <c r="O52" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P52" s="87"/>
       <c r="Q52" s="87"/>
@@ -6362,7 +6357,7 @@
       <c r="S52" s="87"/>
       <c r="T52" s="87"/>
       <c r="U52" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V52" s="87"/>
       <c r="W52" s="87"/>
@@ -6406,32 +6401,32 @@
         <v>45</v>
       </c>
       <c r="D53" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="83" t="s">
         <v>150</v>
       </c>
       <c r="F53" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="84" t="s">
-        <v>229</v>
-      </c>
       <c r="H53" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I53" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J53" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J53" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K53" s="87"/>
       <c r="L53" s="87"/>
       <c r="M53" s="88"/>
       <c r="N53" s="88"/>
       <c r="O53" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P53" s="87"/>
       <c r="Q53" s="87"/>
@@ -6439,7 +6434,7 @@
       <c r="S53" s="87"/>
       <c r="T53" s="87"/>
       <c r="U53" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V53" s="87"/>
       <c r="W53" s="87"/>
@@ -6483,32 +6478,32 @@
         <v>45</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="83" t="s">
         <v>150</v>
       </c>
       <c r="F54" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G54" s="84" t="s">
-        <v>229</v>
-      </c>
       <c r="H54" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I54" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J54" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K54" s="87"/>
       <c r="L54" s="87"/>
       <c r="M54" s="88"/>
       <c r="N54" s="88"/>
       <c r="O54" s="88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P54" s="87"/>
       <c r="Q54" s="87"/>
@@ -6516,7 +6511,7 @@
       <c r="S54" s="87"/>
       <c r="T54" s="87"/>
       <c r="U54" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V54" s="87"/>
       <c r="W54" s="87"/>
@@ -6560,32 +6555,32 @@
         <v>45</v>
       </c>
       <c r="D55" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E55" s="83" t="s">
         <v>150</v>
       </c>
       <c r="F55" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="G55" s="84" t="s">
-        <v>229</v>
-      </c>
       <c r="H55" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I55" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" s="88" t="s">
         <v>221</v>
-      </c>
-      <c r="J55" s="88" t="s">
-        <v>222</v>
       </c>
       <c r="K55" s="87"/>
       <c r="L55" s="87"/>
       <c r="M55" s="88"/>
       <c r="N55" s="88"/>
       <c r="O55" s="88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P55" s="87"/>
       <c r="Q55" s="87"/>
@@ -6593,7 +6588,7 @@
       <c r="S55" s="87"/>
       <c r="T55" s="87"/>
       <c r="U55" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V55" s="87"/>
       <c r="W55" s="87"/>
@@ -6648,12 +6643,12 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="47:55 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,10 +6671,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="95" t="s">
         <v>235</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>236</v>
       </c>
       <c r="I1" s="95" t="s">
         <v>35</v>
@@ -6688,7 +6683,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L1" s="95" t="s">
         <v>36</v>
@@ -6699,7 +6694,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -45,6 +45,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="239">
   <si>
     <t xml:space="preserve">Retrieving data. Wait a few seconds and try to cut or copy again.</t>
   </si>
@@ -687,10 +688,10 @@
     <t xml:space="preserve">Relax после работы: Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10108, A5B10112, A5B10111</t>
+    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 , Schweppes_Tabletent, Schweppes_Menu_2, Schweppes_Menu_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10109, A5B10112, A5B10111, A5B10108, A5B10115, A5B10113, A5B10114</t>
   </si>
   <si>
     <t xml:space="preserve">Midday socializing: Moctails</t>
@@ -702,7 +703,7 @@
     <t xml:space="preserve">Mocktails_2018</t>
   </si>
   <si>
-    <t xml:space="preserve">A5B10109</t>
+    <t xml:space="preserve">A5B10110</t>
   </si>
   <si>
     <t xml:space="preserve">Drink Out: Evening out</t>
@@ -1024,7 +1025,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,9 +1049,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1166,15 +1164,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1215,15 +1213,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1299,9 +1296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785600</xdr:colOff>
+      <xdr:colOff>1785240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1311,7 +1308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13270680" cy="9669960"/>
+          <a:ext cx="13613400" cy="9669600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,9 +1341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785600</xdr:colOff>
+      <xdr:colOff>1785240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1356,7 +1353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13270680" cy="9669960"/>
+          <a:ext cx="13613400" cy="9669600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,9 +1386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785600</xdr:colOff>
+      <xdr:colOff>1785240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1401,7 +1398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13270680" cy="9669960"/>
+          <a:ext cx="13613400" cy="9669600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,9 +1431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785600</xdr:colOff>
+      <xdr:colOff>1785240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1446,7 +1443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13270680" cy="9669960"/>
+          <a:ext cx="13613400" cy="9669600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,9 +1476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785600</xdr:colOff>
+      <xdr:colOff>1785240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1491,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13270680" cy="9669960"/>
+          <a:ext cx="13613400" cy="9669600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,17 +1526,17 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
+      <selection pane="bottomLeft" activeCell="Q41" activeCellId="0" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="32" min="9" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="50.9488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9488372093023"/>
+    <col collapsed="false" hidden="false" max="32" min="9" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="17.9674418604651"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="34.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4947,9 +4944,7 @@
         <v>182</v>
       </c>
       <c r="P39" s="13"/>
-      <c r="Q39" s="13" t="s">
-        <v>138</v>
-      </c>
+      <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13" t="s">
@@ -6310,7 +6305,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.2604651162791"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/HoReCa Restaurant_Cafe PoS 2018.xlsx
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Restaurant_Cafe'!$B$1:$AS$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="240">
   <si>
     <t xml:space="preserve">Retrieving data. Wait a few seconds and try to cut or copy again.</t>
   </si>
@@ -467,6 +468,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">New Alco Brand</t>
@@ -1296,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785240</xdr:colOff>
+      <xdr:colOff>1784880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1308,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13613400" cy="9669600"/>
+          <a:ext cx="13965480" cy="9669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,9 +1345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785240</xdr:colOff>
+      <xdr:colOff>1784880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1353,7 +1357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13613400" cy="9669600"/>
+          <a:ext cx="13965480" cy="9669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,9 +1390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785240</xdr:colOff>
+      <xdr:colOff>1784880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1398,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13613400" cy="9669600"/>
+          <a:ext cx="13965480" cy="9669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785240</xdr:colOff>
+      <xdr:colOff>1784880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1443,7 +1447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13613400" cy="9669600"/>
+          <a:ext cx="13965480" cy="9669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,9 +1480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1785240</xdr:colOff>
+      <xdr:colOff>1784880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1488,7 +1492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="13613400" cy="9669600"/>
+          <a:ext cx="13965480" cy="9669240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,20 +1527,20 @@
   </sheetPr>
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q41" activeCellId="0" sqref="Q41"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.05"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="50.9488372093023"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.9488372093023"/>
-    <col collapsed="false" hidden="false" max="32" min="9" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="32" min="9" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="3" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="18.4604651162791"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="34.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3332,7 +3336,9 @@
         <v>4607174573314</v>
       </c>
       <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="Q21" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
       <c r="T21" s="13" t="s">
@@ -3400,10 +3406,10 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>55</v>
@@ -3415,7 +3421,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O22" s="20" t="n">
         <v>4607174573338</v>
@@ -3485,14 +3491,14 @@
         <v>46</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>55</v>
@@ -3504,10 +3510,10 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -3524,10 +3530,10 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
@@ -3574,17 +3580,17 @@
         <v>46</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13" t="n">
@@ -3607,10 +3613,10 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB24" s="13"/>
       <c r="AC24" s="13"/>
@@ -3637,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AQ24" s="12"/>
       <c r="AR24" s="12"/>
@@ -3659,14 +3665,14 @@
         <v>46</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>55</v>
@@ -3678,13 +3684,13 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -3693,19 +3699,19 @@
         <v>56</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V25" s="13"/>
       <c r="W25" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="AP25" s="12"/>
       <c r="AQ25" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR25" s="12"/>
       <c r="AS25" s="16"/>
@@ -3752,14 +3758,14 @@
         <v>46</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>55</v>
@@ -3772,31 +3778,31 @@
       <c r="M26" s="12"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V26" s="13"/>
       <c r="W26" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
@@ -3824,7 +3830,7 @@
       </c>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR26" s="12"/>
       <c r="AS26" s="16"/>
@@ -3843,17 +3849,17 @@
         <v>46</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J27" s="0"/>
       <c r="K27" s="13" t="n">
@@ -3862,16 +3868,16 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -3879,17 +3885,17 @@
         <v>56</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
@@ -3917,7 +3923,7 @@
       </c>
       <c r="AP27" s="12"/>
       <c r="AQ27" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR27" s="12"/>
       <c r="AS27" s="16"/>
@@ -3936,17 +3942,17 @@
         <v>46</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="12" t="n">
@@ -3969,10 +3975,10 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
@@ -3999,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="AP28" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AQ28" s="12"/>
       <c r="AR28" s="12"/>
@@ -4021,14 +4027,14 @@
         <v>46</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>55</v>
@@ -4041,10 +4047,10 @@
       <c r="M29" s="12"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
@@ -4053,17 +4059,17 @@
         <v>56</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
@@ -4091,7 +4097,7 @@
       </c>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AR29" s="12"/>
       <c r="AS29" s="16"/>
@@ -4110,14 +4116,14 @@
         <v>46</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>55</v>
@@ -4130,31 +4136,31 @@
       <c r="M30" s="12"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S30" s="13"/>
       <c r="T30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="AP30" s="12"/>
       <c r="AQ30" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AR30" s="12"/>
       <c r="AS30" s="16"/>
@@ -4201,17 +4207,17 @@
         <v>46</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="12" t="n">
@@ -4234,10 +4240,10 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
@@ -4264,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="AP31" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AQ31" s="12"/>
       <c r="AR31" s="12"/>
@@ -4286,14 +4292,14 @@
         <v>46</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>55</v>
@@ -4306,33 +4312,33 @@
       <c r="M32" s="12"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="13"/>
       <c r="R32" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
@@ -4360,7 +4366,7 @@
       </c>
       <c r="AP32" s="12"/>
       <c r="AQ32" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AR32" s="12"/>
       <c r="AS32" s="16"/>
@@ -4379,14 +4385,14 @@
         <v>46</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>55</v>
@@ -4399,33 +4405,33 @@
       <c r="M33" s="12"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S33" s="13"/>
       <c r="T33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V33" s="13"/>
       <c r="W33" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
@@ -4453,7 +4459,7 @@
       </c>
       <c r="AP33" s="12"/>
       <c r="AQ33" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AR33" s="12"/>
       <c r="AS33" s="16"/>
@@ -4472,17 +4478,17 @@
         <v>46</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="12" t="n">
@@ -4507,10 +4513,10 @@
       <c r="X34" s="13"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB34" s="13"/>
       <c r="AC34" s="13"/>
@@ -4537,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="AP34" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AQ34" s="12"/>
       <c r="AR34" s="12"/>
@@ -4559,14 +4565,14 @@
         <v>46</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>55</v>
@@ -4579,33 +4585,33 @@
       <c r="M35" s="12"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T35" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
@@ -4633,7 +4639,7 @@
       </c>
       <c r="AP35" s="12"/>
       <c r="AQ35" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AR35" s="12"/>
       <c r="AS35" s="16"/>
@@ -4652,14 +4658,14 @@
         <v>46</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>55</v>
@@ -4671,7 +4677,7 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O36" s="12" t="n">
         <v>5000034</v>
@@ -4691,10 +4697,10 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
@@ -4712,7 +4718,7 @@
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
       <c r="AK36" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12"/>
@@ -4724,7 +4730,7 @@
       </c>
       <c r="AP36" s="12"/>
       <c r="AQ36" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AR36" s="12"/>
       <c r="AS36" s="16"/>
@@ -4743,17 +4749,17 @@
         <v>46</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="12" t="n">
@@ -4776,10 +4782,10 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
@@ -4806,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="AP37" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AQ37" s="12"/>
       <c r="AR37" s="12"/>
@@ -4828,14 +4834,14 @@
         <v>46</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>55</v>
@@ -4847,14 +4853,14 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O38" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
@@ -4869,10 +4875,10 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
@@ -4900,7 +4906,7 @@
       </c>
       <c r="AP38" s="12"/>
       <c r="AQ38" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AR38" s="12"/>
       <c r="AS38" s="16"/>
@@ -4919,14 +4925,14 @@
         <v>46</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>55</v>
@@ -4938,10 +4944,10 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -4958,10 +4964,10 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB39" s="13"/>
       <c r="AC39" s="13"/>
@@ -4989,7 +4995,7 @@
       </c>
       <c r="AP39" s="12"/>
       <c r="AQ39" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AR39" s="12"/>
       <c r="AS39" s="16"/>
@@ -5008,14 +5014,14 @@
         <v>46</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>55</v>
@@ -5027,14 +5033,14 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
@@ -5049,10 +5055,10 @@
       <c r="X40" s="13"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
@@ -5099,14 +5105,14 @@
         <v>46</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>55</v>
@@ -5119,33 +5125,33 @@
       <c r="M41" s="12"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="13"/>
       <c r="R41" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
@@ -5192,17 +5198,17 @@
         <v>95</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13" t="n">
@@ -5223,7 +5229,7 @@
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
       <c r="Z42" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
@@ -5251,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="AP42" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ42" s="0"/>
       <c r="AR42" s="12"/>
@@ -5271,17 +5277,17 @@
         <v>95</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J43" s="0"/>
       <c r="K43" s="15" t="n">
@@ -5299,7 +5305,7 @@
         <v>56</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
@@ -5309,7 +5315,7 @@
         <v>58</v>
       </c>
       <c r="AA43" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
@@ -5337,7 +5343,7 @@
       </c>
       <c r="AP43" s="12"/>
       <c r="AQ43" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AR43" s="12"/>
       <c r="AS43" s="16"/>
@@ -5356,17 +5362,17 @@
         <v>95</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="12" t="n">
@@ -5375,10 +5381,10 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -5388,14 +5394,14 @@
         <v>56</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
@@ -5414,7 +5420,7 @@
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
       <c r="AK44" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12"/>
@@ -5426,7 +5432,7 @@
       </c>
       <c r="AP44" s="12"/>
       <c r="AQ44" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AR44" s="12"/>
       <c r="AS44" s="16"/>
@@ -5445,17 +5451,17 @@
         <v>95</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="12" t="n">
@@ -5464,10 +5470,10 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -5477,14 +5483,14 @@
         <v>56</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
@@ -5503,7 +5509,7 @@
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
       <c r="AK45" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL45" s="12"/>
       <c r="AM45" s="12"/>
@@ -5515,7 +5521,7 @@
       </c>
       <c r="AP45" s="12"/>
       <c r="AQ45" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AR45" s="12"/>
       <c r="AS45" s="16"/>
@@ -5536,13 +5542,13 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J46" s="31"/>
       <c r="K46" s="15"/>
@@ -5553,10 +5559,10 @@
         <v>14</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P46" s="20"/>
       <c r="Q46" s="20"/>
@@ -5573,7 +5579,7 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
@@ -5602,7 +5608,7 @@
       </c>
       <c r="AP46" s="12"/>
       <c r="AQ46" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AR46" s="12"/>
       <c r="AS46" s="16"/>
@@ -5618,25 +5624,25 @@
         <v>45</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -5649,7 +5655,7 @@
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
@@ -5691,32 +5697,32 @@
         <v>45</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="33"/>
       <c r="N48" s="33"/>
       <c r="O48" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
@@ -5724,7 +5730,7 @@
       <c r="S48" s="17"/>
       <c r="T48" s="17"/>
       <c r="U48" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V48" s="17"/>
       <c r="W48" s="17"/>
@@ -5764,32 +5770,32 @@
         <v>45</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
       <c r="M49" s="33"/>
       <c r="N49" s="33"/>
       <c r="O49" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
@@ -5797,7 +5803,7 @@
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
       <c r="U49" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V49" s="17"/>
       <c r="W49" s="17"/>
@@ -5839,32 +5845,32 @@
         <v>45</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="33"/>
       <c r="N50" s="33"/>
       <c r="O50" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
@@ -5872,7 +5878,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
       <c r="U50" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V50" s="17"/>
       <c r="W50" s="17"/>
@@ -5914,32 +5920,32 @@
         <v>45</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="33"/>
       <c r="N51" s="33"/>
       <c r="O51" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
@@ -5947,7 +5953,7 @@
       <c r="S51" s="17"/>
       <c r="T51" s="17"/>
       <c r="U51" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V51" s="17"/>
       <c r="W51" s="17"/>
@@ -5989,32 +5995,32 @@
         <v>45</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
       <c r="M52" s="33"/>
       <c r="N52" s="33"/>
       <c r="O52" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
@@ -6022,7 +6028,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
       <c r="U52" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
@@ -6064,32 +6070,32 @@
         <v>45</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="33"/>
       <c r="N53" s="33"/>
       <c r="O53" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -6097,7 +6103,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
       <c r="U53" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
@@ -6139,32 +6145,32 @@
         <v>45</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
       <c r="M54" s="33"/>
       <c r="N54" s="33"/>
       <c r="O54" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -6172,7 +6178,7 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
       <c r="U54" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
@@ -6214,32 +6220,32 @@
         <v>45</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="33"/>
       <c r="N55" s="33"/>
       <c r="O55" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
@@ -6247,7 +6253,7 @@
       <c r="S55" s="17"/>
       <c r="T55" s="17"/>
       <c r="U55" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V55" s="17"/>
       <c r="W55" s="17"/>
@@ -6305,7 +6311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.6279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,10 +6334,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>35</v>
@@ -6340,7 +6346,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>36</v>
@@ -6351,7 +6357,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
